--- a/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -37,6 +37,21 @@
     <t>JUNIO 2022</t>
   </si>
   <si>
+    <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
+  </si>
+  <si>
+    <t>154585665.80</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>177465174.75</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
     <t>Cuotas de Fondos de Inversión Cerrados</t>
   </si>
   <si>
@@ -52,79 +67,64 @@
     <t>0.10%</t>
   </si>
   <si>
+    <t>Pagarés Bursátiles</t>
+  </si>
+  <si>
+    <t>19343567.32</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>13593460.44</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>270198498.48</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>293363893.26</t>
+  </si>
+  <si>
     <t>Bonos Corporativos</t>
   </si>
   <si>
-    <t>24077842.33</t>
+    <t>21614881.33</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>24008154.43</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>23595835.27</t>
   </si>
   <si>
     <t>0.09%</t>
   </si>
   <si>
-    <t>24008154.43</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>Pagarés Bursátiles</t>
-  </si>
-  <si>
-    <t>19343567.32</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>13593460.44</t>
-  </si>
-  <si>
-    <t>0.05%</t>
+    <t>25284471.82</t>
   </si>
   <si>
     <t>Bonos Bancarios Bursátiles</t>
   </si>
   <si>
-    <t>23108157.92</t>
+    <t>21000395.48</t>
   </si>
   <si>
     <t>23170234.42</t>
-  </si>
-  <si>
-    <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
-  </si>
-  <si>
-    <t>154585665.80</t>
-  </si>
-  <si>
-    <t>0.56%</t>
-  </si>
-  <si>
-    <t>177465174.75</t>
-  </si>
-  <si>
-    <t>0.61%</t>
-  </si>
-  <si>
-    <t>Acciones</t>
-  </si>
-  <si>
-    <t>23595835.27</t>
-  </si>
-  <si>
-    <t>23265949.27</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>274769221.92</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>291345370.71</t>
   </si>
 </sst>
 </file>
@@ -412,37 +412,37 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -453,30 +453,30 @@
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>36</v>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
   </si>
@@ -37,94 +37,73 @@
     <t>JUNIO 2022</t>
   </si>
   <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>25284471.82</t>
+  </si>
+  <si>
+    <t>8.61880838129970487200%</t>
+  </si>
+  <si>
+    <t>Bonos Bancarios Bursátiles</t>
+  </si>
+  <si>
+    <t>23170234.42</t>
+  </si>
+  <si>
+    <t>7.89812071367108771800%</t>
+  </si>
+  <si>
+    <t>Bonos Corporativos</t>
+  </si>
+  <si>
+    <t>24008154.43</t>
+  </si>
+  <si>
+    <t>8.18374550569597932300%</t>
+  </si>
+  <si>
+    <t>Cuotas de Fondos de Inversión Cerrados</t>
+  </si>
+  <si>
+    <t>29842397.40</t>
+  </si>
+  <si>
+    <t>10.17248478276484405800%</t>
+  </si>
+  <si>
     <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
   </si>
   <si>
-    <t>154585665.80</t>
-  </si>
-  <si>
-    <t>0.57%</t>
-  </si>
-  <si>
     <t>177465174.75</t>
   </si>
   <si>
-    <t>0.60%</t>
-  </si>
-  <si>
-    <t>Cuotas de Fondos de Inversión Cerrados</t>
-  </si>
-  <si>
-    <t>30058153.28</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>29842397.40</t>
-  </si>
-  <si>
-    <t>0.10%</t>
+    <t>60.49318911673895338500%</t>
   </si>
   <si>
     <t>Pagarés Bursátiles</t>
   </si>
   <si>
-    <t>19343567.32</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
     <t>13593460.44</t>
   </si>
   <si>
-    <t>0.05%</t>
+    <t>4.63365149982943064500%</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>270198498.48</t>
+    <t>293363893.26</t>
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>293363893.26</t>
-  </si>
-  <si>
-    <t>Bonos Corporativos</t>
-  </si>
-  <si>
-    <t>21614881.33</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>24008154.43</t>
-  </si>
-  <si>
-    <t>Acciones</t>
-  </si>
-  <si>
-    <t>23595835.27</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
-    <t>25284471.82</t>
-  </si>
-  <si>
-    <t>Bonos Bancarios Bursátiles</t>
-  </si>
-  <si>
-    <t>21000395.48</t>
-  </si>
-  <si>
-    <t>23170234.42</t>
   </si>
 </sst>
 </file>
@@ -382,101 +361,101 @@
         <v>13</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>29</v>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -5,39 +5,57 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="BC1_4" sheetId="1" r:id="rId1"/>
+    <sheet name="REP EMISOR TIPO ASEGURADORA" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>CARTERA VALORADA A PRECIOS DE  MERCADO</t>
-  </si>
-  <si>
-    <t>Expresado en Bolivianos</t>
-  </si>
-  <si>
-    <t>TIPO INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>MAYO 2022</t>
-  </si>
-  <si>
-    <t>Valor de cartera</t>
-  </si>
-  <si>
-    <t>Participación %</t>
-  </si>
-  <si>
-    <t>JUNIO 2022</t>
-  </si>
-  <si>
-    <t>Acciones</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>DIVERSIFICACIÓN POR EMISOR DE LA CARTERA DE INVERSIONES SEGUROS</t>
+  </si>
+  <si>
+    <t>Entidades de Seguros y Reaseguros</t>
+  </si>
+  <si>
+    <t>Cartera a Valor de Mercado</t>
+  </si>
+  <si>
+    <t>AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Emisor</t>
+  </si>
+  <si>
+    <t>Seguros Generales</t>
+  </si>
+  <si>
+    <t>Monto Valorado $us</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Seguros Personales</t>
+  </si>
+  <si>
+    <t>Seguros Prepago</t>
+  </si>
+  <si>
+    <t>Total entidades</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>Banco Económico S.A.</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0</t>
@@ -46,61 +64,139 @@
     <t>0%</t>
   </si>
   <si>
-    <t>25284471.82</t>
-  </si>
-  <si>
-    <t>8.61880838129970487200%</t>
-  </si>
-  <si>
-    <t>Bonos Bancarios Bursátiles</t>
-  </si>
-  <si>
-    <t>23170234.42</t>
-  </si>
-  <si>
-    <t>7.89812071367108771800%</t>
-  </si>
-  <si>
-    <t>Bonos Corporativos</t>
-  </si>
-  <si>
-    <t>24008154.43</t>
-  </si>
-  <si>
-    <t>8.18374550569597932300%</t>
-  </si>
-  <si>
-    <t>Cuotas de Fondos de Inversión Cerrados</t>
-  </si>
-  <si>
-    <t>29842397.40</t>
-  </si>
-  <si>
-    <t>10.17248478276484405800%</t>
-  </si>
-  <si>
-    <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
-  </si>
-  <si>
-    <t>177465174.75</t>
-  </si>
-  <si>
-    <t>60.49318911673895338500%</t>
-  </si>
-  <si>
-    <t>Pagarés Bursátiles</t>
-  </si>
-  <si>
-    <t>13593460.44</t>
-  </si>
-  <si>
-    <t>4.63365149982943064500%</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>293363893.26</t>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>Banco Ganadero S.A.</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>BISA Leasing S.A.</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>Banco Bisa S.A.</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>Banco Mercantil Santa Cruz S.A. </t>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t>Banco Solidario S.A - BancoSol S.A.</t>
+  </si>
+  <si>
+    <t>BTB</t>
+  </si>
+  <si>
+    <t>Banco de Crédito de Bolivia S.A.</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>Banco Unión S.A.</t>
+  </si>
+  <si>
+    <t>FEF</t>
+  </si>
+  <si>
+    <t>Banco Pyme ECOFUTURO S.A.</t>
+  </si>
+  <si>
+    <t>FFO</t>
+  </si>
+  <si>
+    <t>Banco Fortaleza S.A.</t>
+  </si>
+  <si>
+    <t>FIE</t>
+  </si>
+  <si>
+    <t>Banco para el Fomento a Iniciativas Económicas S.A.</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Industrias de Aceite S.A.</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>Banco Fassil S.A.</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Incotec Ingeniería y Construcción</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>Jalasoft S.R.L.</t>
+  </si>
+  <si>
+    <t>NFB</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo Productivo S.A.M. Banco de Segundo Piso</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>NIBOL LTDA</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>Sociedad Agroindustrial Nutroil S.A.</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Parque Industrial Latinoamericano</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Procesadora de Oleaginosas PROLEGA S.A.</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Sociedad Boliviana de Cemento S.A. "SOBOCE"</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Santa Cruz FG Sociedad Controladora</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>Industria Textil TSM S.A.</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>100%</t>
@@ -270,21 +366,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -292,8 +392,13 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -301,8 +406,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -310,61 +420,87 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>14</v>
@@ -372,100 +508,770 @@
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="10">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -5,13 +5,109 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="REP EMISOR TIPO ASEGURADORA" sheetId="1" r:id="rId1"/>
+    <sheet name="Boletín Cuadro 1.4" sheetId="1" r:id="rId1"/>
+    <sheet name="REP EMISOR TIPO ASEGURADORA" sheetId="2" r:id="rId2"/>
+    <sheet name="TGN-BCB" sheetId="3" r:id="rId3"/>
+    <sheet name="REP EMISOR" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+  <si>
+    <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>CARTERA VALORADA A PRECIOS DE  MERCADO</t>
+  </si>
+  <si>
+    <t>Expresado en Bolivianos</t>
+  </si>
+  <si>
+    <t>TIPO INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>MAYO 2022</t>
+  </si>
+  <si>
+    <t>Valor de cartera</t>
+  </si>
+  <si>
+    <t>Participación %</t>
+  </si>
+  <si>
+    <t>JUNIO 2022</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23265949.27</t>
+  </si>
+  <si>
+    <t>7.93049787761179603500%</t>
+  </si>
+  <si>
+    <t>Bonos Bancarios Bursátiles</t>
+  </si>
+  <si>
+    <t>23170234.42</t>
+  </si>
+  <si>
+    <t>7.89787224063597315200%</t>
+  </si>
+  <si>
+    <t>Bonos Corporativos</t>
+  </si>
+  <si>
+    <t>26035906.43</t>
+  </si>
+  <si>
+    <t>8.87467338162962965300%</t>
+  </si>
+  <si>
+    <t>Cuotas de Fondos de Inversión Cerrados</t>
+  </si>
+  <si>
+    <t>29842397.40</t>
+  </si>
+  <si>
+    <t>10.17216475876669786200%</t>
+  </si>
+  <si>
+    <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
+  </si>
+  <si>
+    <t>177465174.75</t>
+  </si>
+  <si>
+    <t>60.49128601512168156000%</t>
+  </si>
+  <si>
+    <t>Pagarés Bursátiles</t>
+  </si>
+  <si>
+    <t>13593460.44</t>
+  </si>
+  <si>
+    <t>4.63350572623422173800%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>293373122.71</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
   <si>
     <t>DIVERSIFICACIÓN POR EMISOR DE LA CARTERA DE INVERSIONES SEGUROS</t>
   </si>
@@ -55,151 +151,994 @@
     <t>Banco Económico S.A.</t>
   </si>
   <si>
+    <t>2203068.98</t>
+  </si>
+  <si>
+    <t>6.29016598129597563700%</t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>Banco Ganadero S.A.</t>
+  </si>
+  <si>
+    <t>2812266.15</t>
+  </si>
+  <si>
+    <t>8.02953562855767022600%</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>BISA Leasing S.A.</t>
+  </si>
+  <si>
+    <t>102918.73</t>
+  </si>
+  <si>
+    <t>0.29385184947054429800%</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>Banco Bisa S.A.</t>
+  </si>
+  <si>
+    <t>808004.38</t>
+  </si>
+  <si>
+    <t>2.30700069310319388700%</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>Banco Mercantil Santa Cruz S.A. </t>
+  </si>
+  <si>
+    <t>3854963.95</t>
+  </si>
+  <si>
+    <t>11.00662907859215573000%</t>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t>Banco Solidario S.A - BancoSol S.A.</t>
+  </si>
+  <si>
+    <t>574559.05</t>
+  </si>
+  <si>
+    <t>1.64047146202191704900%</t>
+  </si>
+  <si>
+    <t>BTB</t>
+  </si>
+  <si>
+    <t>Banco de Crédito de Bolivia S.A.</t>
+  </si>
+  <si>
+    <t>3675452.76</t>
+  </si>
+  <si>
+    <t>10.49409170874549830600%</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>Banco Unión S.A.</t>
+  </si>
+  <si>
+    <t>3493693.84</t>
+  </si>
+  <si>
+    <t>9.97513665751460278800%</t>
+  </si>
+  <si>
+    <t>FEF</t>
+  </si>
+  <si>
+    <t>Banco Pyme ECOFUTURO S.A.</t>
+  </si>
+  <si>
+    <t>2534501.59</t>
+  </si>
+  <si>
+    <t>7.23646686766864672200%</t>
+  </si>
+  <si>
+    <t>FFO</t>
+  </si>
+  <si>
+    <t>Banco Fortaleza S.A.</t>
+  </si>
+  <si>
+    <t>359420.87</t>
+  </si>
+  <si>
+    <t>1.02621250172647943600%</t>
+  </si>
+  <si>
+    <t>FIE</t>
+  </si>
+  <si>
+    <t>Banco para el Fomento a Iniciativas Económicas S.A.</t>
+  </si>
+  <si>
+    <t>2010443.87</t>
+  </si>
+  <si>
+    <t>5.74018596475314580300%</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Industrias de Aceite S.A.</t>
+  </si>
+  <si>
+    <t>434588.92</t>
+  </si>
+  <si>
+    <t>1.24083107031544616100%</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>Banco Fassil S.A.</t>
+  </si>
+  <si>
+    <t>2859566.67</t>
+  </si>
+  <si>
+    <t>8.16458728808474046800%</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Incotec Ingeniería y Construcción</t>
+  </si>
+  <si>
+    <t>775925.51</t>
+  </si>
+  <si>
+    <t>2.21540963598049951100%</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>Jalasoft S.R.L.</t>
+  </si>
+  <si>
+    <t>406944.80</t>
+  </si>
+  <si>
+    <t>1.16190203777699895100%</t>
+  </si>
+  <si>
+    <t>NFB</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo Productivo S.A.M. Banco de Segundo Piso</t>
+  </si>
+  <si>
+    <t>4061202.08</t>
+  </si>
+  <si>
+    <t>11.59547676386622145300%</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>NIBOL LTDA</t>
+  </si>
+  <si>
+    <t>74164.59</t>
+  </si>
+  <si>
+    <t>0.21175350625415446700%</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>Sociedad Agroindustrial Nutroil S.A.</t>
+  </si>
+  <si>
+    <t>202964.00</t>
+  </si>
+  <si>
+    <t>0.57949944364781369600%</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Parque Industrial Latinoamericano</t>
+  </si>
+  <si>
+    <t>89989.11</t>
+  </si>
+  <si>
+    <t>0.25693541307503748400%</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Procesadora de Oleaginosas PROLEGA S.A.</t>
+  </si>
+  <si>
+    <t>1147492.48</t>
+  </si>
+  <si>
+    <t>3.27630148080472391600%</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Sociedad Boliviana de Cemento S.A. "SOBOCE"</t>
+  </si>
+  <si>
+    <t>729695.25</t>
+  </si>
+  <si>
+    <t>2.08341376503937805300%</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Santa Cruz FG Sociedad Controladora</t>
+  </si>
+  <si>
+    <t>1055892.24</t>
+  </si>
+  <si>
+    <t>3.01476599609804583500%</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>Industria Textil TSM S.A.</t>
+  </si>
+  <si>
+    <t>756300.00</t>
+  </si>
+  <si>
+    <t>2.15937520560711012100%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>BGA</t>
-  </si>
-  <si>
-    <t>Banco Ganadero S.A.</t>
-  </si>
-  <si>
-    <t>BIL</t>
-  </si>
-  <si>
-    <t>BISA Leasing S.A.</t>
-  </si>
-  <si>
-    <t>BIS</t>
-  </si>
-  <si>
-    <t>Banco Bisa S.A.</t>
-  </si>
-  <si>
-    <t>BME</t>
-  </si>
-  <si>
-    <t>Banco Mercantil Santa Cruz S.A. </t>
-  </si>
-  <si>
-    <t>BSO</t>
-  </si>
-  <si>
-    <t>Banco Solidario S.A - BancoSol S.A.</t>
-  </si>
-  <si>
-    <t>BTB</t>
-  </si>
-  <si>
-    <t>Banco de Crédito de Bolivia S.A.</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>Banco Unión S.A.</t>
-  </si>
-  <si>
-    <t>FEF</t>
-  </si>
-  <si>
-    <t>Banco Pyme ECOFUTURO S.A.</t>
-  </si>
-  <si>
-    <t>FFO</t>
-  </si>
-  <si>
-    <t>Banco Fortaleza S.A.</t>
-  </si>
-  <si>
-    <t>FIE</t>
-  </si>
-  <si>
-    <t>Banco para el Fomento a Iniciativas Económicas S.A.</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Industrias de Aceite S.A.</t>
-  </si>
-  <si>
-    <t>FSL</t>
-  </si>
-  <si>
-    <t>Banco Fassil S.A.</t>
-  </si>
-  <si>
-    <t>ICT</t>
-  </si>
-  <si>
-    <t>Incotec Ingeniería y Construcción</t>
-  </si>
-  <si>
-    <t>JSF</t>
-  </si>
-  <si>
-    <t>Jalasoft S.R.L.</t>
-  </si>
-  <si>
-    <t>NFB</t>
-  </si>
-  <si>
-    <t>Banco de Desarrollo Productivo S.A.M. Banco de Segundo Piso</t>
-  </si>
-  <si>
-    <t>NIB</t>
-  </si>
-  <si>
-    <t>NIBOL LTDA</t>
-  </si>
-  <si>
-    <t>NUT</t>
-  </si>
-  <si>
-    <t>Sociedad Agroindustrial Nutroil S.A.</t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>Parque Industrial Latinoamericano</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Procesadora de Oleaginosas PROLEGA S.A.</t>
-  </si>
-  <si>
-    <t>SBC</t>
-  </si>
-  <si>
-    <t>Sociedad Boliviana de Cemento S.A. "SOBOCE"</t>
-  </si>
-  <si>
-    <t>SOC</t>
-  </si>
-  <si>
-    <t>Santa Cruz FG Sociedad Controladora</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>Industria Textil TSM S.A.</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>35024019.82</t>
+  </si>
+  <si>
+    <t>AUTORIDAD DE FISCALIZACIÓN Y CONTROL DE PENSIONES Y SEGUROS</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE INVERSIONES</t>
+  </si>
+  <si>
+    <t>DETALLE DE CARTERA DE INVERSIÓN ADMISIBLE TOTAL MERCADO POR EMISOR TGN - BCB AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>Cantidad de valores</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Total valorado US$</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>BME-1-N2B-15</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1034666.33</t>
+  </si>
+  <si>
+    <t>7097811.00</t>
+  </si>
+  <si>
+    <t>BME-1-E1C-17</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>307650.00</t>
+  </si>
+  <si>
+    <t>2110479.00</t>
+  </si>
+  <si>
+    <t>BME-1-N3B-15</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>426877.46</t>
+  </si>
+  <si>
+    <t>2928379.40</t>
+  </si>
+  <si>
+    <t>DPF</t>
+  </si>
+  <si>
+    <t>BECN01317716</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>849389.14</t>
+  </si>
+  <si>
+    <t>5826809.49</t>
+  </si>
+  <si>
+    <t>BTBN01157119</t>
+  </si>
+  <si>
+    <t>428222.41</t>
+  </si>
+  <si>
+    <t>2937605.74</t>
+  </si>
+  <si>
+    <t>BTBN01195519</t>
+  </si>
+  <si>
+    <t>170752.26</t>
+  </si>
+  <si>
+    <t>1171360.49</t>
+  </si>
+  <si>
+    <t>BTBN01198219</t>
+  </si>
+  <si>
+    <t>341388.13</t>
+  </si>
+  <si>
+    <t>2341922.59</t>
+  </si>
+  <si>
+    <t>BTBN01195919</t>
+  </si>
+  <si>
+    <t>BTBN01195619</t>
+  </si>
+  <si>
+    <t>BGAE01218221</t>
+  </si>
+  <si>
+    <t>1013224.52</t>
+  </si>
+  <si>
+    <t>6950720.21</t>
+  </si>
+  <si>
+    <t>BTBN01193719</t>
+  </si>
+  <si>
+    <t>342126.29</t>
+  </si>
+  <si>
+    <t>2346986.36</t>
+  </si>
+  <si>
+    <t>BTBN01157019</t>
+  </si>
+  <si>
+    <t>BTBN00131815</t>
+  </si>
+  <si>
+    <t>898174.79</t>
+  </si>
+  <si>
+    <t>6161479.09</t>
+  </si>
+  <si>
+    <t>BTBN01195419</t>
+  </si>
+  <si>
+    <t>BECN03087221</t>
+  </si>
+  <si>
+    <t>223521.74</t>
+  </si>
+  <si>
+    <t>1533359.13</t>
+  </si>
+  <si>
+    <t>FEFN15652019</t>
+  </si>
+  <si>
+    <t>366257.45</t>
+  </si>
+  <si>
+    <t>2512526.14</t>
+  </si>
+  <si>
+    <t>BMEE14594722</t>
+  </si>
+  <si>
+    <t>110439.55</t>
+  </si>
+  <si>
+    <t>757615.31</t>
+  </si>
+  <si>
+    <t>BMEE15050522</t>
+  </si>
+  <si>
+    <t>100193.63</t>
+  </si>
+  <si>
+    <t>687328.30</t>
+  </si>
+  <si>
+    <t>BMEE15050622</t>
+  </si>
+  <si>
+    <t>BSON68167421</t>
+  </si>
+  <si>
+    <t>155055.41</t>
+  </si>
+  <si>
+    <t>1063680.14</t>
+  </si>
+  <si>
+    <t>FFON06679922</t>
+  </si>
+  <si>
+    <t>74366.08</t>
+  </si>
+  <si>
+    <t>510151.30</t>
+  </si>
+  <si>
+    <t>FFON06681822</t>
+  </si>
+  <si>
+    <t>148712.49</t>
+  </si>
+  <si>
+    <t>1020167.71</t>
+  </si>
+  <si>
+    <t>FFON06725422</t>
+  </si>
+  <si>
+    <t>75362.11</t>
+  </si>
+  <si>
+    <t>516984.08</t>
+  </si>
+  <si>
+    <t>BSON65167321</t>
+  </si>
+  <si>
+    <t>419503.64</t>
+  </si>
+  <si>
+    <t>2877794.96</t>
+  </si>
+  <si>
+    <t>BTB-N1U-13</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>554309.69</t>
+  </si>
+  <si>
+    <t>3802564.47</t>
+  </si>
+  <si>
+    <t>BME-2-E1B-19</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>122761.50</t>
+  </si>
+  <si>
+    <t>842143.89</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>81841.00</t>
+  </si>
+  <si>
+    <t>561429.26</t>
+  </si>
+  <si>
+    <t>BGA-1-N1A-18</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>292993.88</t>
+  </si>
+  <si>
+    <t>2009938.00</t>
+  </si>
+  <si>
+    <t>BEC-3-N1U-16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5278.63</t>
+  </si>
+  <si>
+    <t>36211.40</t>
+  </si>
+  <si>
+    <t>BME-2-N3B-16</t>
+  </si>
+  <si>
+    <t>160314.72</t>
+  </si>
+  <si>
+    <t>1099759.00</t>
+  </si>
+  <si>
+    <t>BECN03087321</t>
+  </si>
+  <si>
+    <t>FEFN15651919</t>
+  </si>
+  <si>
+    <t>BUNN46626822</t>
+  </si>
+  <si>
+    <t>59692.80</t>
+  </si>
+  <si>
+    <t>409492.63</t>
+  </si>
+  <si>
+    <t>BUNN46655422</t>
+  </si>
+  <si>
+    <t>14549.17</t>
+  </si>
+  <si>
+    <t>99807.30</t>
+  </si>
+  <si>
+    <t>BMEE12365321</t>
+  </si>
+  <si>
+    <t>601914.64</t>
+  </si>
+  <si>
+    <t>4129134.43</t>
+  </si>
+  <si>
+    <t>BUNE45119321</t>
+  </si>
+  <si>
+    <t>2011214.37</t>
+  </si>
+  <si>
+    <t>13796930.58</t>
+  </si>
+  <si>
+    <t>BUNE45560722</t>
+  </si>
+  <si>
+    <t>703176.73</t>
+  </si>
+  <si>
+    <t>4823792.37</t>
+  </si>
+  <si>
+    <t>BEC-3-N2U-16</t>
+  </si>
+  <si>
+    <t>8639.94</t>
+  </si>
+  <si>
+    <t>59270.00</t>
+  </si>
+  <si>
+    <t>BUNE38439420</t>
+  </si>
+  <si>
+    <t>630494.00</t>
+  </si>
+  <si>
+    <t>4325188.84</t>
+  </si>
+  <si>
+    <t>BGAE01286321</t>
+  </si>
+  <si>
+    <t>504947.45</t>
+  </si>
+  <si>
+    <t>3463939.51</t>
+  </si>
+  <si>
+    <t>FFON06679222</t>
+  </si>
+  <si>
+    <t>60980.19</t>
+  </si>
+  <si>
+    <t>418324.07</t>
+  </si>
+  <si>
+    <t>FIEN68452922</t>
+  </si>
+  <si>
+    <t>30006.09</t>
+  </si>
+  <si>
+    <t>205841.80</t>
+  </si>
+  <si>
+    <t>FSLE38800922</t>
+  </si>
+  <si>
+    <t>363639.80</t>
+  </si>
+  <si>
+    <t>2494569.03</t>
+  </si>
+  <si>
+    <t>FSLN27821616</t>
+  </si>
+  <si>
+    <t>356663.22</t>
+  </si>
+  <si>
+    <t>2446709.69</t>
+  </si>
+  <si>
+    <t>FSLN27821716</t>
+  </si>
+  <si>
+    <t>FSLN27825916</t>
+  </si>
+  <si>
+    <t>356543.66</t>
+  </si>
+  <si>
+    <t>2445889.54</t>
+  </si>
+  <si>
+    <t>FSLN27826016</t>
+  </si>
+  <si>
+    <t>FSLN27827516</t>
+  </si>
+  <si>
+    <t>356514.19</t>
+  </si>
+  <si>
+    <t>2445687.35</t>
+  </si>
+  <si>
+    <t>FSLN27827616</t>
+  </si>
+  <si>
+    <t>FSLN27830616</t>
+  </si>
+  <si>
+    <t>356484.72</t>
+  </si>
+  <si>
+    <t>2445485.19</t>
+  </si>
+  <si>
+    <t>BUNN46603022</t>
+  </si>
+  <si>
+    <t>74566.77</t>
+  </si>
+  <si>
+    <t>511528.01</t>
+  </si>
+  <si>
+    <t>BISN02115215</t>
+  </si>
+  <si>
+    <t>307598.38</t>
+  </si>
+  <si>
+    <t>2110124.86</t>
+  </si>
+  <si>
+    <t>BECN03211522</t>
+  </si>
+  <si>
+    <t>732122.18</t>
+  </si>
+  <si>
+    <t>5022358.13</t>
+  </si>
+  <si>
+    <t>NFBN00133420</t>
+  </si>
+  <si>
+    <t>406116.91</t>
+  </si>
+  <si>
+    <t>2785962.03</t>
+  </si>
+  <si>
+    <t>NFBN00133520</t>
+  </si>
+  <si>
+    <t>NFBN00133620</t>
+  </si>
+  <si>
+    <t>NFBN00133720</t>
+  </si>
+  <si>
+    <t>NFBN00133820</t>
+  </si>
+  <si>
+    <t>NFBN00134020</t>
+  </si>
+  <si>
+    <t>NFBN00134120</t>
+  </si>
+  <si>
+    <t>NFBN00134220</t>
+  </si>
+  <si>
+    <t>NFBN00134920</t>
+  </si>
+  <si>
+    <t>406149.85</t>
+  </si>
+  <si>
+    <t>2786187.97</t>
+  </si>
+  <si>
+    <t>NFBN00133920</t>
+  </si>
+  <si>
+    <t>BECN03227222</t>
+  </si>
+  <si>
+    <t>160595.62</t>
+  </si>
+  <si>
+    <t>1101685.95</t>
+  </si>
+  <si>
+    <t>BGAE01464822</t>
+  </si>
+  <si>
+    <t>1001100.30</t>
+  </si>
+  <si>
+    <t>6867548.06</t>
+  </si>
+  <si>
+    <t>BISE05612822</t>
+  </si>
+  <si>
+    <t>500406.00</t>
+  </si>
+  <si>
+    <t>3432785.16</t>
+  </si>
+  <si>
+    <t>BMEE15262522</t>
+  </si>
+  <si>
+    <t>500461.49</t>
+  </si>
+  <si>
+    <t>3433165.82</t>
+  </si>
+  <si>
+    <t>FIE-N1B-14</t>
+  </si>
+  <si>
+    <t>74602.04</t>
+  </si>
+  <si>
+    <t>511770.00</t>
+  </si>
+  <si>
+    <t>FIEE67933922</t>
+  </si>
+  <si>
+    <t>1005307.52</t>
+  </si>
+  <si>
+    <t>6896409.59</t>
+  </si>
+  <si>
+    <t>FIEE70646322</t>
+  </si>
+  <si>
+    <t>900528.22</t>
+  </si>
+  <si>
+    <t>6177623.59</t>
+  </si>
+  <si>
+    <t>FEFN15652119</t>
+  </si>
+  <si>
+    <t>FEFN15652219</t>
+  </si>
+  <si>
+    <t>FEFN15652319</t>
+  </si>
+  <si>
+    <t>FEFN15652419</t>
+  </si>
+  <si>
+    <t>FEFN15652519</t>
+  </si>
+  <si>
+    <t>336956.86</t>
+  </si>
+  <si>
+    <t>2311524.05</t>
+  </si>
+  <si>
+    <t>29247144.12</t>
+  </si>
+  <si>
+    <t>200635409.17</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSIONES DE VALORES POR EMISOR</t>
+  </si>
+  <si>
+    <t>Seguros Generales y Seguros de Personas</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Total General</t>
+  </si>
+  <si>
+    <t>15113053.23</t>
+  </si>
+  <si>
+    <t>17282207.78</t>
+  </si>
+  <si>
+    <t>19292145.78</t>
+  </si>
+  <si>
+    <t>706022.49</t>
+  </si>
+  <si>
+    <t>5542910.02</t>
+  </si>
+  <si>
+    <t>15319103.31</t>
+  </si>
+  <si>
+    <t>11125949.40</t>
+  </si>
+  <si>
+    <t>26445052.71</t>
+  </si>
+  <si>
+    <t>3941475.10</t>
+  </si>
+  <si>
+    <t>25213605.95</t>
+  </si>
+  <si>
+    <t>22945911.79</t>
+  </si>
+  <si>
+    <t>1020827.94</t>
+  </si>
+  <si>
+    <t>23966739.73</t>
+  </si>
+  <si>
+    <t>17386680.89</t>
+  </si>
+  <si>
+    <t>2465627.16</t>
+  </si>
+  <si>
+    <t>13074033.18</t>
+  </si>
+  <si>
+    <t>717611.80</t>
+  </si>
+  <si>
+    <t>13791644.98</t>
+  </si>
+  <si>
+    <t>2981280.00</t>
+  </si>
+  <si>
+    <t>17122058.35</t>
+  </si>
+  <si>
+    <t>19616627.38</t>
+  </si>
+  <si>
+    <t>5322849.00</t>
+  </si>
+  <si>
+    <t>2791641.33</t>
+  </si>
+  <si>
+    <t>27859846.24</t>
+  </si>
+  <si>
+    <t>508769.10</t>
+  </si>
+  <si>
+    <t>1392333.04</t>
+  </si>
+  <si>
+    <t>617325.30</t>
+  </si>
+  <si>
+    <t>7871798.41</t>
+  </si>
+  <si>
+    <t>5005709.40</t>
+  </si>
+  <si>
+    <t>7243420.80</t>
+  </si>
+  <si>
+    <t>5188218.00</t>
   </si>
 </sst>
 </file>
@@ -366,6 +1305,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
@@ -386,7 +1528,7 @@
   <sheetData>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -400,7 +1542,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -414,7 +1556,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -428,7 +1570,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -442,25 +1584,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -468,796 +1610,796 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="10" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="10" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="10" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="10" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="10" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="10" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="16" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1275,4 +2417,1766 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -775,6 +775,249 @@
     <t>4823792.37</t>
   </si>
   <si>
+    <t>BUNE38439420</t>
+  </si>
+  <si>
+    <t>630494.00</t>
+  </si>
+  <si>
+    <t>4325188.84</t>
+  </si>
+  <si>
+    <t>BGAE01286321</t>
+  </si>
+  <si>
+    <t>504947.45</t>
+  </si>
+  <si>
+    <t>3463939.51</t>
+  </si>
+  <si>
+    <t>FFON06679222</t>
+  </si>
+  <si>
+    <t>60980.19</t>
+  </si>
+  <si>
+    <t>418324.07</t>
+  </si>
+  <si>
+    <t>FIEN68452922</t>
+  </si>
+  <si>
+    <t>30006.09</t>
+  </si>
+  <si>
+    <t>205841.80</t>
+  </si>
+  <si>
+    <t>FSLE38800922</t>
+  </si>
+  <si>
+    <t>363639.80</t>
+  </si>
+  <si>
+    <t>2494569.03</t>
+  </si>
+  <si>
+    <t>FSLN27821616</t>
+  </si>
+  <si>
+    <t>356663.22</t>
+  </si>
+  <si>
+    <t>2446709.69</t>
+  </si>
+  <si>
+    <t>FSLN27821716</t>
+  </si>
+  <si>
+    <t>FSLN27825916</t>
+  </si>
+  <si>
+    <t>356543.66</t>
+  </si>
+  <si>
+    <t>2445889.54</t>
+  </si>
+  <si>
+    <t>FSLN27826016</t>
+  </si>
+  <si>
+    <t>FSLN27827516</t>
+  </si>
+  <si>
+    <t>356514.19</t>
+  </si>
+  <si>
+    <t>2445687.35</t>
+  </si>
+  <si>
+    <t>FSLN27827616</t>
+  </si>
+  <si>
+    <t>FSLN27830616</t>
+  </si>
+  <si>
+    <t>356484.72</t>
+  </si>
+  <si>
+    <t>2445485.19</t>
+  </si>
+  <si>
+    <t>BUNN46603022</t>
+  </si>
+  <si>
+    <t>74566.77</t>
+  </si>
+  <si>
+    <t>511528.01</t>
+  </si>
+  <si>
+    <t>BISN02115215</t>
+  </si>
+  <si>
+    <t>307598.38</t>
+  </si>
+  <si>
+    <t>2110124.86</t>
+  </si>
+  <si>
+    <t>BECN03211522</t>
+  </si>
+  <si>
+    <t>732122.18</t>
+  </si>
+  <si>
+    <t>5022358.13</t>
+  </si>
+  <si>
+    <t>NFBN00133420</t>
+  </si>
+  <si>
+    <t>406116.91</t>
+  </si>
+  <si>
+    <t>2785962.03</t>
+  </si>
+  <si>
+    <t>NFBN00133520</t>
+  </si>
+  <si>
+    <t>NFBN00133620</t>
+  </si>
+  <si>
+    <t>NFBN00133720</t>
+  </si>
+  <si>
+    <t>NFBN00133820</t>
+  </si>
+  <si>
+    <t>NFBN00134020</t>
+  </si>
+  <si>
+    <t>NFBN00134120</t>
+  </si>
+  <si>
+    <t>NFBN00134220</t>
+  </si>
+  <si>
+    <t>NFBN00134920</t>
+  </si>
+  <si>
+    <t>406149.85</t>
+  </si>
+  <si>
+    <t>2786187.97</t>
+  </si>
+  <si>
+    <t>NFBN00133920</t>
+  </si>
+  <si>
+    <t>BECN03227222</t>
+  </si>
+  <si>
+    <t>160595.62</t>
+  </si>
+  <si>
+    <t>1101685.95</t>
+  </si>
+  <si>
+    <t>BGAE01464822</t>
+  </si>
+  <si>
+    <t>1001100.30</t>
+  </si>
+  <si>
+    <t>6867548.06</t>
+  </si>
+  <si>
+    <t>BISE05612822</t>
+  </si>
+  <si>
+    <t>500406.00</t>
+  </si>
+  <si>
+    <t>3432785.16</t>
+  </si>
+  <si>
+    <t>BMEE15262522</t>
+  </si>
+  <si>
+    <t>500461.49</t>
+  </si>
+  <si>
+    <t>3433165.82</t>
+  </si>
+  <si>
+    <t>FIE-N1B-14</t>
+  </si>
+  <si>
+    <t>74602.04</t>
+  </si>
+  <si>
+    <t>511770.00</t>
+  </si>
+  <si>
+    <t>FIEE67933922</t>
+  </si>
+  <si>
+    <t>1005307.52</t>
+  </si>
+  <si>
+    <t>6896409.59</t>
+  </si>
+  <si>
+    <t>FIEE70646322</t>
+  </si>
+  <si>
+    <t>900528.22</t>
+  </si>
+  <si>
+    <t>6177623.59</t>
+  </si>
+  <si>
+    <t>FEFN15652119</t>
+  </si>
+  <si>
+    <t>FEFN15652219</t>
+  </si>
+  <si>
+    <t>FEFN15652319</t>
+  </si>
+  <si>
+    <t>FEFN15652419</t>
+  </si>
+  <si>
+    <t>FEFN15652519</t>
+  </si>
+  <si>
+    <t>336956.86</t>
+  </si>
+  <si>
+    <t>2311524.05</t>
+  </si>
+  <si>
     <t>BEC-3-N2U-16</t>
   </si>
   <si>
@@ -782,249 +1025,6 @@
   </si>
   <si>
     <t>59270.00</t>
-  </si>
-  <si>
-    <t>BUNE38439420</t>
-  </si>
-  <si>
-    <t>630494.00</t>
-  </si>
-  <si>
-    <t>4325188.84</t>
-  </si>
-  <si>
-    <t>BGAE01286321</t>
-  </si>
-  <si>
-    <t>504947.45</t>
-  </si>
-  <si>
-    <t>3463939.51</t>
-  </si>
-  <si>
-    <t>FFON06679222</t>
-  </si>
-  <si>
-    <t>60980.19</t>
-  </si>
-  <si>
-    <t>418324.07</t>
-  </si>
-  <si>
-    <t>FIEN68452922</t>
-  </si>
-  <si>
-    <t>30006.09</t>
-  </si>
-  <si>
-    <t>205841.80</t>
-  </si>
-  <si>
-    <t>FSLE38800922</t>
-  </si>
-  <si>
-    <t>363639.80</t>
-  </si>
-  <si>
-    <t>2494569.03</t>
-  </si>
-  <si>
-    <t>FSLN27821616</t>
-  </si>
-  <si>
-    <t>356663.22</t>
-  </si>
-  <si>
-    <t>2446709.69</t>
-  </si>
-  <si>
-    <t>FSLN27821716</t>
-  </si>
-  <si>
-    <t>FSLN27825916</t>
-  </si>
-  <si>
-    <t>356543.66</t>
-  </si>
-  <si>
-    <t>2445889.54</t>
-  </si>
-  <si>
-    <t>FSLN27826016</t>
-  </si>
-  <si>
-    <t>FSLN27827516</t>
-  </si>
-  <si>
-    <t>356514.19</t>
-  </si>
-  <si>
-    <t>2445687.35</t>
-  </si>
-  <si>
-    <t>FSLN27827616</t>
-  </si>
-  <si>
-    <t>FSLN27830616</t>
-  </si>
-  <si>
-    <t>356484.72</t>
-  </si>
-  <si>
-    <t>2445485.19</t>
-  </si>
-  <si>
-    <t>BUNN46603022</t>
-  </si>
-  <si>
-    <t>74566.77</t>
-  </si>
-  <si>
-    <t>511528.01</t>
-  </si>
-  <si>
-    <t>BISN02115215</t>
-  </si>
-  <si>
-    <t>307598.38</t>
-  </si>
-  <si>
-    <t>2110124.86</t>
-  </si>
-  <si>
-    <t>BECN03211522</t>
-  </si>
-  <si>
-    <t>732122.18</t>
-  </si>
-  <si>
-    <t>5022358.13</t>
-  </si>
-  <si>
-    <t>NFBN00133420</t>
-  </si>
-  <si>
-    <t>406116.91</t>
-  </si>
-  <si>
-    <t>2785962.03</t>
-  </si>
-  <si>
-    <t>NFBN00133520</t>
-  </si>
-  <si>
-    <t>NFBN00133620</t>
-  </si>
-  <si>
-    <t>NFBN00133720</t>
-  </si>
-  <si>
-    <t>NFBN00133820</t>
-  </si>
-  <si>
-    <t>NFBN00134020</t>
-  </si>
-  <si>
-    <t>NFBN00134120</t>
-  </si>
-  <si>
-    <t>NFBN00134220</t>
-  </si>
-  <si>
-    <t>NFBN00134920</t>
-  </si>
-  <si>
-    <t>406149.85</t>
-  </si>
-  <si>
-    <t>2786187.97</t>
-  </si>
-  <si>
-    <t>NFBN00133920</t>
-  </si>
-  <si>
-    <t>BECN03227222</t>
-  </si>
-  <si>
-    <t>160595.62</t>
-  </si>
-  <si>
-    <t>1101685.95</t>
-  </si>
-  <si>
-    <t>BGAE01464822</t>
-  </si>
-  <si>
-    <t>1001100.30</t>
-  </si>
-  <si>
-    <t>6867548.06</t>
-  </si>
-  <si>
-    <t>BISE05612822</t>
-  </si>
-  <si>
-    <t>500406.00</t>
-  </si>
-  <si>
-    <t>3432785.16</t>
-  </si>
-  <si>
-    <t>BMEE15262522</t>
-  </si>
-  <si>
-    <t>500461.49</t>
-  </si>
-  <si>
-    <t>3433165.82</t>
-  </si>
-  <si>
-    <t>FIE-N1B-14</t>
-  </si>
-  <si>
-    <t>74602.04</t>
-  </si>
-  <si>
-    <t>511770.00</t>
-  </si>
-  <si>
-    <t>FIEE67933922</t>
-  </si>
-  <si>
-    <t>1005307.52</t>
-  </si>
-  <si>
-    <t>6896409.59</t>
-  </si>
-  <si>
-    <t>FIEE70646322</t>
-  </si>
-  <si>
-    <t>900528.22</t>
-  </si>
-  <si>
-    <t>6177623.59</t>
-  </si>
-  <si>
-    <t>FEFN15652119</t>
-  </si>
-  <si>
-    <t>FEFN15652219</t>
-  </si>
-  <si>
-    <t>FEFN15652319</t>
-  </si>
-  <si>
-    <t>FEFN15652419</t>
-  </si>
-  <si>
-    <t>FEFN15652519</t>
-  </si>
-  <si>
-    <t>336956.86</t>
-  </si>
-  <si>
-    <t>2311524.05</t>
   </si>
   <si>
     <t>29247144.12</t>
@@ -3126,13 +3126,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>253</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>254</v>
@@ -3237,10 +3237,10 @@
         <v>161</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3248,16 +3248,16 @@
         <v>159</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3271,10 +3271,10 @@
         <v>161</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3282,16 +3282,16 @@
         <v>159</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3305,10 +3305,10 @@
         <v>161</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3316,16 +3316,16 @@
         <v>159</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3407,10 +3407,10 @@
         <v>161</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3418,16 +3418,16 @@
         <v>159</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3435,16 +3435,16 @@
         <v>159</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3452,16 +3452,16 @@
         <v>159</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3469,16 +3469,16 @@
         <v>159</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3486,16 +3486,16 @@
         <v>159</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3503,16 +3503,16 @@
         <v>159</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3520,16 +3520,16 @@
         <v>159</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3543,10 +3543,10 @@
         <v>161</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3554,16 +3554,16 @@
         <v>159</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3619,13 +3619,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>318</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>319</v>
@@ -3636,13 +3636,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>321</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>322</v>
@@ -3679,10 +3679,10 @@
         <v>161</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3690,7 +3690,7 @@
         <v>159</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>161</v>
@@ -3707,7 +3707,7 @@
         <v>159</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>161</v>
@@ -3724,7 +3724,7 @@
         <v>159</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>161</v>
@@ -3741,27 +3741,27 @@
         <v>159</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>335</v>
@@ -3896,10 +3896,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>348</v>
@@ -4022,7 +4022,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>363</v>
